--- a/PRIAM Metamodel/Mapping Article-PRIAM.xlsx
+++ b/PRIAM Metamodel/Mapping Article-PRIAM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doctorat\Travail personnel\2023\SoSyM revue\Complementary files\PRIAM Metamodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA9A1C8-FD8E-4879-8691-D0D6C68584C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687B83D-4855-4CE6-8495-FDAD3445FA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{095F3C4A-825F-46E1-BE34-2B4EC481721F}"/>
   </bookViews>
@@ -145,10 +145,6 @@
     <t>In implementation, these elements allow the system to ensure compliance with GDPR principles, supporting transparency, enabling data modification to maintain accuracy, enforcing purpose limitation, and ensuring proper retention and protection of data.</t>
   </si>
   <si>
-    <t>PRIAM  cannot judge whether data collection is excessive or objectively 
-justified in a given context.</t>
-  </si>
-  <si>
     <r>
       <t>Article 6</t>
     </r>
@@ -170,9 +166,6 @@
   </si>
   <si>
     <t>Thanks to this legal basis, the system can manage the rights of both application owner and data subjects regarding the execution of each processing, ensuring compliance with GDPR obligations.</t>
-  </si>
-  <si>
-    <t>PRIAM cannot verify whether that legal basis is valid</t>
   </si>
   <si>
     <r>
@@ -297,10 +290,6 @@
     <t>PRIAM enforces structural consistency by ensuring that rights requests (DataRequest) can only be created for personal data that is linked to a data subject,</t>
   </si>
   <si>
-    <t>PRIAM cannot determine whether a controller is legally exempt from identifying a
- data subject under Article 11, nor can it assess whether additional identification efforts would be reasonable or proportionate; this requires legal and contextual human judgment.</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
@@ -518,10 +507,6 @@
     <t>A data subject can submit a portability request via DataRequest, and PRIAM can generate a structured, machine-readable export of the relevant Data and Processing, and record the transfer event.</t>
   </si>
   <si>
-    <t>Direct transmission to another system or handling portability exceptions
- (public-interest processing, third-party rights) requires external tools and human oversight.</t>
-  </si>
-  <si>
     <r>
       <t>Article 21</t>
     </r>
@@ -546,10 +531,6 @@
     <t>Allows registering and tracking objection requests, prevente further execution of the targeted processing, and retains the history of requests (audit case).</t>
   </si>
   <si>
-    <t>Determining whether compelling legitimate grounds override the objection
- or applying exemptions for research/statistics requires legal evaluation and human decision-making.</t>
-  </si>
-  <si>
     <r>
       <t>Article 22</t>
     </r>
@@ -596,10 +577,6 @@
 They can submit a review or objection request via ProcessingRequest, and PRIAM can record it, indicating that human intervention or contestation is required.</t>
   </si>
   <si>
-    <t>PRIAM cannot autonomously assess the legal or significant effects of automated
- decisions, enforce exceptions</t>
-  </si>
-  <si>
     <r>
       <t>Article 23</t>
     </r>
@@ -644,10 +621,6 @@
   </si>
   <si>
     <t xml:space="preserve">PRIAM partially enforces structural accountability through built-in validators (e.g., preventing incomplete processing records) and generates compliance artefacts automatically (records of processing). </t>
-  </si>
-  <si>
-    <t>Evaluating whether measures are actually sufficient or appropriate under
- GDPR requires human assessment.</t>
   </si>
   <si>
     <r>
@@ -701,31 +674,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PRIAM cannot model or verify the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>legal allocation of obligations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> between
- joint controllers (e.g. who must inform data subjects, who handles which rights), nor assess whether their arrangement complies with Article 26; this requires human/legal judgment.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Article 27</t>
     </r>
     <r>
@@ -812,9 +760,6 @@
     <t>PRIAM can describe all elements required for records of processing activities by structuring Processing, Purpose, Data, DataSubjectCategory, SecondaryActor, transfers, and measures within the model.</t>
   </si>
   <si>
-    <t>Génération automatique de PRIAM à partir d'information que gère le métamodèle</t>
-  </si>
-  <si>
     <r>
       <t>Article 31</t>
     </r>
@@ -833,10 +778,6 @@
   </si>
   <si>
     <t>PRIAM  describe the supervisory authority as a secondary actor and relate it to processings and breaches.</t>
-  </si>
-  <si>
-    <t>Effective cooperation with the authority involves physical or organizational 
-actions outside of PRIAM.</t>
   </si>
   <si>
     <r>
@@ -927,10 +868,6 @@
     <t>PRIAM describe a DPIA using the DPIA class linked to relevant Processings, showing which personal data, purposes, and measures are involved</t>
   </si>
   <si>
-    <t xml:space="preserve"> An expert evaluation is needed (to judge the adequacy of the risk assessment, 
-evaluate mitigation effectiveness,...).</t>
-  </si>
-  <si>
     <r>
       <t>Article 36</t>
     </r>
@@ -949,9 +886,6 @@
   </si>
   <si>
     <t>PRIAM documents the information necessary for a consultation with the supervisory authority (processing, purposes, DPO, ...) and DPIA is also available.</t>
-  </si>
-  <si>
-    <t>La vérification automatique que la consultation a eu lieu reste hors de portée ; l’action réelle dépend de procédures externes.</t>
   </si>
   <si>
     <t>Article 37 – Designation of the data protection officer (DPO)</t>
@@ -1030,10 +964,6 @@
     <t>PRIAM provides descriptive support only: codes of conduct and certifications can be documented and linked to processings and actors via the Document package</t>
   </si>
   <si>
-    <t>PRIAM can only document references to codes of conduct and certifications, 
-while human intervention is required to assess their legal validity, approval status, scope, and effective application.</t>
-  </si>
-  <si>
     <r>
       <t>Article 41</t>
     </r>
@@ -1109,10 +1039,6 @@
   </si>
   <si>
     <t>PRIAM enforces that any transfer is explicitly recorded and associated with a recipient and data, preventing undocumented transfers in the system.</t>
-  </si>
-  <si>
-    <t>Human intervention is required to determine the legality, proportionality, and
- applicability of transfer mechanisms under GDPR.</t>
   </si>
   <si>
     <r>
@@ -1257,6 +1183,50 @@
   <si>
     <t>Restrictions for processing 
 criminal conviction data</t>
+  </si>
+  <si>
+    <t>Evaluating whether measures are actually sufficient or appropriate under GDPR requires human assessment.</t>
+  </si>
+  <si>
+    <t>PRIAM cannot autonomously assess the legal or significant effects of automated decisions, enforce exceptions</t>
+  </si>
+  <si>
+    <t>Determining whether compelling legitimate grounds override the objection or applying exemptions for research/statistics requires legal evaluation and human decision-making.</t>
+  </si>
+  <si>
+    <t>Effective cooperation with the authority involves physical or organizational  actions outside of PRIAM.</t>
+  </si>
+  <si>
+    <t>Human intervention is required to determine the legality, proportionality, and applicability of transfer mechanisms under GDPR.</t>
+  </si>
+  <si>
+    <t>PRIAM can only document references to codes of conduct and certifications, while human intervention is required to assess their legal validity, approval status, scope, and effective application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An expert evaluation is needed (to judge the adequacy of the risk assessment, evaluate mitigation effectiveness,...).</t>
+  </si>
+  <si>
+    <t>PRIAM cannot model or verify the legal allocation of obligations between
+ joint controllers (e.g. who must inform data subjects, who handles which rights), nor assess whether their arrangement complies with Article 26; this requires human/legal judgment.</t>
+  </si>
+  <si>
+    <t>PRIAM  cannot judge whether data collection is excessive or objectively justified in a given context.</t>
+  </si>
+  <si>
+    <t>PRIAM cannot determine whether a controller is legally exempt from identifying a data subject under Article 11, nor can it assess whether additional identification efforts would be reasonable or proportionate; this requires legal and contextual human judgment.</t>
+  </si>
+  <si>
+    <t>PRIAM automatically generates the record of processings from information managed by the metamodel</t>
+  </si>
+  <si>
+    <t>PRIAM cannot verify whether that legal basis is valid. 
+Humain intervention is required.</t>
+  </si>
+  <si>
+    <t>Direct transmission to another system or handling portability exceptions (public-interest processing, third-party rights) requires human oversight.</t>
+  </si>
+  <si>
+    <t>Automatic verification that the consultation took place remains out of reach. This requires human intervention.</t>
   </si>
 </sst>
 </file>
@@ -1505,6 +1475,63 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1514,67 +1541,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1899,7 +1869,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F5"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,7 +1903,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1942,50 +1912,50 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2001,755 +1971,757 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="F21" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="2" t="s">
+      <c r="F22" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="7" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="2" t="s">
+      <c r="D45" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="F45" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="16" t="s">
+      <c r="C46" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="2" t="s">
+      <c r="D46" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="2" t="s">
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="2" t="s">
+      <c r="D47" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C48" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="C49" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="2" t="s">
+      <c r="D49" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="2" t="s">
+      <c r="E50" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="A52" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="F45:F51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:C53"/>
     <mergeCell ref="D52:F53"/>
@@ -2766,8 +2738,6 @@
     <mergeCell ref="D41:D44"/>
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="F41:F44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="F45:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRIAM Metamodel/Mapping Article-PRIAM.xlsx
+++ b/PRIAM Metamodel/Mapping Article-PRIAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doctorat\Travail personnel\2023\SoSyM revue\Complementary files\PRIAM Metamodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687B83D-4855-4CE6-8495-FDAD3445FA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33053646-BC0C-47B7-9A7C-D1F8EACD58EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{095F3C4A-825F-46E1-BE34-2B4EC481721F}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>Sets principles such as lawfulness, fairness, transparency, purpose limitation, data minimization, accuracy, storage limitation, integrity, and confidentiality</t>
   </si>
   <si>
-    <t>PRIAM models essential elements such as purposes, data, retention periods, and recipients, capturing GDPR principles like lawfulness, purpose limitation, data minimization, accuracy, integrity, and confidentiality.</t>
-  </si>
-  <si>
     <t>In implementation, these elements allow the system to ensure compliance with GDPR principles, supporting transparency, enabling data modification to maintain accuracy, enforcing purpose limitation, and ensuring proper retention and protection of data.</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>PRIAM models consent as a class linked to data subjects and processings, representing the existence of consents. PRIAM does not explicitly describe qualities, it ensures that the qualities of consent (explicit, freely given, informed, or specific) are respected</t>
-  </si>
-  <si>
-    <t>Throught consent, contract, processing classes and links between them, the system can enforce that a processing dependent on consent only executes when valid consent exists, and can manage withdrawal or modification of consent, respecting data subject rights.</t>
   </si>
   <si>
     <r>
@@ -777,9 +771,6 @@
     <t>Controllers and processors must cooperate with supervisory authorities</t>
   </si>
   <si>
-    <t>PRIAM  describe the supervisory authority as a secondary actor and relate it to processings and breaches.</t>
-  </si>
-  <si>
     <r>
       <t>Article 32</t>
     </r>
@@ -821,9 +812,6 @@
     <t>Obligation to notify authorities of data breaches within 72 hours</t>
   </si>
   <si>
-    <t>PRIAM describe a breach through the Breach class, including affected Data, DataSubject, associated Consequences, and Measures taken. The model makes explicit which processings and actors are involved, allowing a structured view of incidents.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Automated notifications are sent to authorities and affected individuals according to risk level. 
 Notifications to subprocessors are managed if needed, and the breach register is automatically generated.</t>
   </si>
@@ -865,9 +853,6 @@
     <t>High-risk processing requires DPIA</t>
   </si>
   <si>
-    <t>PRIAM describe a DPIA using the DPIA class linked to relevant Processings, showing which personal data, purposes, and measures are involved</t>
-  </si>
-  <si>
     <r>
       <t>Article 36</t>
     </r>
@@ -892,9 +877,6 @@
   </si>
   <si>
     <t>Controllers/processors must designate a DPO under certain conditions</t>
-  </si>
-  <si>
-    <t>PRIAM describe the appointment of a DPO through the DPO class, including contact details and reasons for exemption if applicable.</t>
   </si>
   <si>
     <t>PRIAM cannot verify whether the DPO is sufficiently independent, qualified, or actively performing their duties; this requires organizational oversight.</t>
@@ -1035,9 +1017,6 @@
     <t>Personal data transfers outside the EU require appropriate safeguards</t>
   </si>
   <si>
-    <t>PRIAM  describe international data transfers through PersonalDataTransfer, linked to Data, Processing, and SecondaryActors, making explicit when personal data is transferred to secondary actor in other countries.</t>
-  </si>
-  <si>
     <t>PRIAM enforces that any transfer is explicitly recorded and associated with a recipient and data, preventing undocumented transfers in the system.</t>
   </si>
   <si>
@@ -1058,9 +1037,6 @@
     <t>Transfers allowed if Commission deems third country provides adequate protection</t>
   </si>
   <si>
-    <t>PRIAM  describe the adequacy status of a recipient country using the Country.adequate attribute and associate it with the receiving SecondaryActor.</t>
-  </si>
-  <si>
     <t>PRIAM enforces the use of the adequacy attribute in transfer modeling, allowing rules to check whether a transfer targets an adequate country.</t>
   </si>
   <si>
@@ -1081,9 +1057,6 @@
     <t>Safeguards such as standard contractual clauses, binding corporate rules</t>
   </si>
   <si>
-    <t>PRIAM describe safeguards through safeguard and safeguardType attributes associated with SecondaryActors receiving transferred data.</t>
-  </si>
-  <si>
     <t>PRIAM enforces that when the recipient country is not adequate, a safeguard and safeguard type must be provided</t>
   </si>
   <si>
@@ -1104,9 +1077,6 @@
     <t>Requirements for intra-group transfers</t>
   </si>
   <si>
-    <t>PRIAM describe binding corporate rules by referencing them as safeguards linked to the relevant SecondaryActors and transfers.</t>
-  </si>
-  <si>
     <t>PRIAM enforces traceability by requiring that such safeguards be explicitly associated with international transfers when declared.</t>
   </si>
   <si>
@@ -1127,9 +1097,6 @@
     <t>Restrictions on transfers conflicting with EU law</t>
   </si>
   <si>
-    <t>PRIAM describe transfers to foreign authorities as PersonalDataTransfer linked to SecondaryActors and Processing.</t>
-  </si>
-  <si>
     <r>
       <t>Article 49</t>
     </r>
@@ -1145,10 +1112,6 @@
   </si>
   <si>
     <t>Exceptions allowing transfers in specific circumstances</t>
-  </si>
-  <si>
-    <t>PRIAM describe derogations by associating the appropriate safeguardType (e.g., derogation) with a SecondaryActor involved in a transfer.
-PRIAM can describe a derogation by linking a PersonalDataTransfer to a Processing whose legal basis is declared and, where applicable, by associating this processing with a Consent given by the data subject.</t>
   </si>
   <si>
     <t>PRIAM enforces that a transfer based on derogation is explicitly modeled by requiring a declared legal basis, an associated consent when used, and a safeguard type set to Derogation for the receiving SecondaryActor.</t>
@@ -1227,6 +1190,43 @@
   </si>
   <si>
     <t>Automatic verification that the consultation took place remains out of reach. This requires human intervention.</t>
+  </si>
+  <si>
+    <t>PRIAM models essential elements such as purposes, data, retention periods, and recipients, capture GDPR principles like lawfulness, purpose limitation, data minimization, accuracy, integrity, and confidentiality.</t>
+  </si>
+  <si>
+    <t>Throught consent, contract, processing classes and the links between them, the system can enforce that a processing dependent on consent only executes when valid consent exists, and can manage withdrawal or modification of consent, respecting data subject rights.</t>
+  </si>
+  <si>
+    <t>PRIAM  describes the supervisory authority as a secondary actor and relate it to processings and breaches.</t>
+  </si>
+  <si>
+    <t>PRIAM describes a breach through the Breach class, including affected Data, DataSubject, associated Consequences, and Measures taken. The model makes explicit which processings and actors are involved, allowing a structured view of incidents.</t>
+  </si>
+  <si>
+    <t>PRIAM describes a DPIA using the DPIA class linked to relevant Processings, showing which personal data, purposes, and measures are involved</t>
+  </si>
+  <si>
+    <t>PRIAM describes the appointment of a DPO through the DPO class, including contact details and reasons for exemption if applicable.</t>
+  </si>
+  <si>
+    <t>PRIAM  describes international data transfers through PersonalDataTransfer, linked to Data, Processing, and SecondaryActors, making explicit when personal data is transferred to secondary actor in other countries.</t>
+  </si>
+  <si>
+    <t>PRIAM  describes the adequacy status of a recipient country using the Country.adequate attribute and associate it with the receiving SecondaryActor.</t>
+  </si>
+  <si>
+    <t>PRIAM describes safeguards through safeguard and safeguardType attributes associated with SecondaryActors receiving transferred data.</t>
+  </si>
+  <si>
+    <t>PRIAM describes binding corporate rules by referencing them as safeguards linked to the relevant SecondaryActors and transfers.</t>
+  </si>
+  <si>
+    <t>PRIAM describes transfers to foreign authorities as PersonalDataTransfer linked to SecondaryActors and Processing.</t>
+  </si>
+  <si>
+    <t>PRIAM describes derogations by associating the appropriate safeguardType (e.g., derogation) with a SecondaryActor involved in a transfer.
+PRIAM can describe a derogation by linking a PersonalDataTransfer to a Processing whose legal basis is declared and, where applicable, by associating this processing with a Consent given by the data subject.</t>
   </si>
 </sst>
 </file>
@@ -1476,6 +1476,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,9 +1490,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1527,9 +1530,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EB22DD-1514-4615-9E05-62EE727C0607}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,7 +1903,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1912,50 +1912,50 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1965,771 +1965,761 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="C17" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="F22" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="7" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="E31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2" t="s">
+      <c r="F34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="C35" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="C36" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="28" t="s">
+      <c r="D40" s="7" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="28" t="s">
-        <v>197</v>
+        <v>149</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="33"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D47" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F45" s="28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="2" t="s">
+      <c r="C48" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D48" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="2" t="s">
+      <c r="D49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D50" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="2" t="s">
+      <c r="C51" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="13"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="F45:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:F53"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:F5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="F16:F18"/>
     <mergeCell ref="A25:A44"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
@@ -2738,6 +2728,16 @@
     <mergeCell ref="D41:D44"/>
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D2:F5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:F53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
